--- a/BOM/TRACER_GBOX_20161031.xlsx
+++ b/BOM/TRACER_GBOX_20161031.xlsx
@@ -151,27 +151,7 @@
     <t>GPS天线接头</t>
   </si>
   <si>
-    <r>
-      <t>MMCX-50KH4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天线接头</t>
-    </r>
+    <t>U.FL座 IPEX/IPX接头U.FL-R-SMT 射频同轴连接器天线座</t>
   </si>
   <si>
     <t>ANT1</t>
@@ -404,12 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,19 +413,80 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,15 +500,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,65 +531,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,38 +554,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -602,55 +569,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,127 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +774,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,9 +819,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,15 +848,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,17 +875,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -916,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,137 +895,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,14 +1035,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1166,8 +1127,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>240665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,8 +1419,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1483,95 +1444,95 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="17.25" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="17.25" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="17.25" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="17.25" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="214.5" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1579,718 +1540,718 @@
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="17.25" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="17.25" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="17.25" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="17.25" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="17.25" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="17.25" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>20</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="17.25" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="34.5" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>20</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="17.25" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="34.5" spans="1:6">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" ht="17.25" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" ht="17.25" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>10</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" ht="17.25" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" ht="17.25" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" ht="17.25" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>20</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" ht="17.25" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>10</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" ht="17.25" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>30</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" ht="17.25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>30</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" ht="17.25" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>200</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="17.25" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>20</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" ht="17.25" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>200</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" ht="86.25" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>16</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>200</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>200</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" ht="34.5" spans="1:6">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <v>20</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>100</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" ht="17.25" spans="1:6">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>100</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" ht="17.25" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>3</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>50</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" ht="17.25" spans="1:6">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <v>100</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" ht="86.25" spans="1:6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>14</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>200</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" ht="17.25" spans="1:6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
         <v>20</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" ht="17.25" spans="1:6">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>100</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" ht="17.25" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>100</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" ht="17.25" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>3</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>100</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" ht="17.25" spans="1:6">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>3</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>50</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" ht="34.5" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
         <v>50</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" ht="17.25" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>100</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" ht="17.25" spans="1:6">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>100</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" ht="51.75" spans="1:6">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>30</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>500</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" ht="17.25" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
         <v>200</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/BOM/TRACER_GBOX_20161031.xlsx
+++ b/BOM/TRACER_GBOX_20161031.xlsx
@@ -85,7 +85,7 @@
     <t>U5</t>
   </si>
   <si>
-    <t>SD1206</t>
+    <t>SD2068</t>
   </si>
   <si>
     <t>RTC时钟芯片</t>
@@ -384,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -416,6 +416,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -432,7 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +459,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,8 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,14 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,29 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,13 +569,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,19 +665,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,43 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,91 +731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,6 +803,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -813,26 +828,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,17 +847,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +866,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -883,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,133 +895,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,8 +1419,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
